--- a/data/trans_dic/CoPsoQ_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/CoPsoQ_R-Habitat-trans_dic.xlsx
@@ -664,7 +664,7 @@
         <v>0.2563403739312622</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.2845061763134146</v>
+        <v>0.2845061763134145</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2354967274010039</v>
+        <v>0.2297451979143287</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1729371728839681</v>
+        <v>0.1747163057872095</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1914374958364002</v>
+        <v>0.1943910443721547</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2103941985583584</v>
+        <v>0.2134949265127218</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.241174408741132</v>
+        <v>0.2380787978147342</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1853002910199076</v>
+        <v>0.1853776101211564</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2407837441364773</v>
+        <v>0.2416761765420742</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2178261089743194</v>
+        <v>0.2161431749834799</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2172880950712729</v>
+        <v>0.2103946711580187</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3503827971009439</v>
+        <v>0.3408368912042652</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2849651086181633</v>
+        <v>0.2827233210441422</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4155064777950452</v>
+        <v>0.4320124478764883</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3646377452378477</v>
+        <v>0.3558774980525125</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3809080663569469</v>
+        <v>0.37651185420443</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3740771203977654</v>
+        <v>0.3655404285933198</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3303902071165572</v>
+        <v>0.3344432661672466</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.306963076979773</v>
+        <v>0.3039662706646769</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3683610165089446</v>
+        <v>0.3625784231278075</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1799669806480915</v>
+        <v>0.1803231738213949</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1640128417345047</v>
+        <v>0.1652670456969258</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2051968966123036</v>
+        <v>0.1910672167505548</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.194862734428183</v>
+        <v>0.188561889416372</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1902230682483781</v>
+        <v>0.1873873712405189</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1670153538454082</v>
+        <v>0.1673283476494888</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1997509945526982</v>
+        <v>0.1982889346737947</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1845140539072389</v>
+        <v>0.1844917545166682</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2021601804588737</v>
+        <v>0.2008316141382986</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2691649751499308</v>
+        <v>0.2626123003921643</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2481218256911482</v>
+        <v>0.2454503570730224</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3639811848434824</v>
+        <v>0.3571022785980231</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3055628269710115</v>
+        <v>0.3019883164193726</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2913669537865158</v>
+        <v>0.292654682262218</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.306222276753858</v>
+        <v>0.3098830332584277</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2715210577521221</v>
+        <v>0.2664790699266967</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2474551597165397</v>
+        <v>0.2471224167747949</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3139468710544836</v>
+        <v>0.3164629145050415</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +864,7 @@
         <v>0.1855339407398466</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.3582110237896538</v>
+        <v>0.3582110237896539</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.1968581512543423</v>
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1489142132819594</v>
+        <v>0.1492749518687989</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1478142221640796</v>
+        <v>0.1406369050507278</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2451138492305445</v>
+        <v>0.2453618110972209</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1432172513299919</v>
+        <v>0.147499252386038</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1114747560021576</v>
+        <v>0.1094485228096923</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2150109291124986</v>
+        <v>0.2091851558833492</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1606105044076134</v>
+        <v>0.1562360989103363</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1423842752708433</v>
+        <v>0.1425754630013306</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2574317103344985</v>
+        <v>0.2539872860935438</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2481729175510808</v>
+        <v>0.2392591832040237</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2330714266004112</v>
+        <v>0.2318771463284601</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5060936356498728</v>
+        <v>0.5117108804799666</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2665678575635635</v>
+        <v>0.261207876472058</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1977689157173468</v>
+        <v>0.2002613045147553</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4025941177298363</v>
+        <v>0.3916587352874543</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.230890539169549</v>
+        <v>0.2314480032503481</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2027867125394875</v>
+        <v>0.2061053003318855</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4093563345102817</v>
+        <v>0.4083692758377704</v>
       </c>
     </row>
     <row r="13">
@@ -982,7 +982,7 @@
         <v>0.2523015210999024</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.4148177862425017</v>
+        <v>0.4148177862425015</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.2209138407819234</v>
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1738892941643886</v>
+        <v>0.174206838540487</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2385264493263813</v>
+        <v>0.2403898928739282</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3126424665020396</v>
+        <v>0.3143221229004057</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1823134975752191</v>
+        <v>0.1768643046094708</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2019591310770445</v>
+        <v>0.202428050013091</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3205804886992044</v>
+        <v>0.3172261005241105</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.189600944471547</v>
+        <v>0.1893816210629202</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2375281471100014</v>
+        <v>0.23968571209791</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3460088240893608</v>
+        <v>0.3476110100076845</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2590107451534986</v>
+        <v>0.2578715561550286</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3308025933491265</v>
+        <v>0.334177081526873</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5049578425904109</v>
+        <v>0.5102682932353052</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.284129964288963</v>
+        <v>0.2851453249751294</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.300426225635328</v>
+        <v>0.300515222283965</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.5041101986516426</v>
+        <v>0.4986391273760382</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2552032351583143</v>
+        <v>0.2536355550680871</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3026741723893161</v>
+        <v>0.3061530465623807</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4773177360475478</v>
+        <v>0.4815615340108123</v>
       </c>
     </row>
     <row r="16">
@@ -1091,7 +1091,7 @@
         <v>0.2302138012550605</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.2989929277197984</v>
+        <v>0.2989929277197983</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.2291672480465452</v>
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2027296840138433</v>
+        <v>0.2007095625083857</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.202743993763595</v>
+        <v>0.2036417663168986</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2787704173578103</v>
+        <v>0.2763562495408796</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2077634145738645</v>
+        <v>0.2087168315904143</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.205067052927574</v>
+        <v>0.2048017500023826</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2567765467746382</v>
+        <v>0.256000868462268</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2120000228384814</v>
+        <v>0.2123517700246179</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2110976301665004</v>
+        <v>0.2098900178802231</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2809587318117208</v>
+        <v>0.2815931544431111</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2476916184314259</v>
+        <v>0.2499208745971675</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2489837949415027</v>
+        <v>0.2486548392917711</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3834140409892814</v>
+        <v>0.3781325136137029</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2684110291502007</v>
+        <v>0.2649854549762348</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2589877714230741</v>
+        <v>0.2583904854691314</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3444009797154803</v>
+        <v>0.3423619537015343</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2473785216602129</v>
+        <v>0.2492444326575552</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2446288621865067</v>
+        <v>0.2448807734461273</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3495149328954149</v>
+        <v>0.3484875635908848</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>62383</v>
+        <v>60860</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>41733</v>
+        <v>42163</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>18706</v>
+        <v>18994</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>33087</v>
+        <v>33575</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>39609</v>
+        <v>39100</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>14210</v>
+        <v>14216</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>101650</v>
+        <v>102027</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>88340</v>
+        <v>87658</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>37895</v>
+        <v>36692</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>92817</v>
+        <v>90288</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>68768</v>
+        <v>68227</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>40600</v>
+        <v>42212</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>57344</v>
+        <v>55966</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>62557</v>
+        <v>61835</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>28687</v>
+        <v>28032</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>139479</v>
+        <v>141190</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>124490</v>
+        <v>123274</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>64241</v>
+        <v>63233</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>72093</v>
+        <v>72235</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>67778</v>
+        <v>68296</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>34253</v>
+        <v>31894</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>51454</v>
+        <v>49790</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>51884</v>
+        <v>51110</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>20529</v>
+        <v>20567</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>132763</v>
+        <v>131791</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>126576</v>
+        <v>126561</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>58595</v>
+        <v>58210</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>107824</v>
+        <v>105199</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>102535</v>
+        <v>101431</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>60758</v>
+        <v>59610</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>80684</v>
+        <v>79741</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>79471</v>
+        <v>79822</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>37640</v>
+        <v>38090</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>180464</v>
+        <v>177113</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>169753</v>
+        <v>169525</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>90995</v>
+        <v>91725</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>47135</v>
+        <v>47249</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>53623</v>
+        <v>51019</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>22609</v>
+        <v>22631</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>29933</v>
+        <v>30828</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>30045</v>
+        <v>29499</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>19550</v>
+        <v>19020</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>84405</v>
+        <v>82107</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>90029</v>
+        <v>90150</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>47152</v>
+        <v>46521</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>78553</v>
+        <v>75732</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>84551</v>
+        <v>84118</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>46681</v>
+        <v>47199</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>55714</v>
+        <v>54593</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>53303</v>
+        <v>53975</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>36606</v>
+        <v>35612</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>121340</v>
+        <v>121633</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>128221</v>
+        <v>130319</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>74979</v>
+        <v>74798</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>70913</v>
+        <v>71042</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>95172</v>
+        <v>95916</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>36121</v>
+        <v>36315</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>53897</v>
+        <v>52286</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>65732</v>
+        <v>65885</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>29963</v>
+        <v>29649</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>133372</v>
+        <v>133217</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>172083</v>
+        <v>173646</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>72315</v>
+        <v>72650</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>105626</v>
+        <v>105161</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>131991</v>
+        <v>133337</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>58340</v>
+        <v>58953</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>83997</v>
+        <v>84297</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>97781</v>
+        <v>97810</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>47116</v>
+        <v>46605</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>179518</v>
+        <v>178416</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>219280</v>
+        <v>221800</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>99758</v>
+        <v>100645</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>281758</v>
+        <v>278950</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>287154</v>
+        <v>288425</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>131693</v>
+        <v>130553</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>192378</v>
+        <v>193261</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>211626</v>
+        <v>211352</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>98600</v>
+        <v>98302</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>490943</v>
+        <v>491757</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>516834</v>
+        <v>513878</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>240613</v>
+        <v>241156</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>344247</v>
+        <v>347345</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>352645</v>
+        <v>352179</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>181128</v>
+        <v>178633</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>248534</v>
+        <v>245362</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>267271</v>
+        <v>266654</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>132247</v>
+        <v>131464</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>572871</v>
+        <v>577192</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>598929</v>
+        <v>599546</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>299325</v>
+        <v>298445</v>
       </c>
     </row>
     <row r="24">
